--- a/Code/public/Venator_Consuting_Exported_file_posting_1_1.xlsx
+++ b/Code/public/Venator_Consuting_Exported_file_posting_1_1.xlsx
@@ -385,323 +385,262 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="4" width="10" customWidth="1"/>
+    <col min="1" max="2" width="10" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="12" width="25" customWidth="1"/>
-    <col min="14" max="28" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="15" width="25" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="22" width="25" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="24" max="69" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <v>Id</v>
+        <v>Mandant</v>
       </c>
       <c r="B1" t="str">
-        <v>procedureId</v>
+        <v>Buchungskreis</v>
       </c>
       <c r="C1" t="str">
-        <v>client</v>
+        <v>Belegnummer</v>
       </c>
       <c r="D1" t="str">
-        <v>companyCode</v>
+        <v>Belegdatum</v>
       </c>
       <c r="E1" t="str">
-        <v>recordNumber</v>
+        <v>Kontotyp</v>
       </c>
       <c r="F1" t="str">
-        <v>documentNumber</v>
+        <v>Gegenkontotyp</v>
       </c>
       <c r="G1" t="str">
-        <v>documentNumber2</v>
+        <v>Kontonummer</v>
       </c>
       <c r="H1" t="str">
-        <v>assignment</v>
+        <v>Kontobezeichnung</v>
       </c>
       <c r="I1" t="str">
-        <v>reference</v>
+        <v>Kontonummer Gegenkonto</v>
       </c>
       <c r="J1" t="str">
-        <v>documentTypeNumber</v>
+        <v>Bezeichnung Kreditorenkonto</v>
       </c>
       <c r="K1" t="str">
-        <v>documentTypeName</v>
+        <v>Saldo EUR</v>
       </c>
       <c r="L1" t="str">
-        <v>documentTypeNew</v>
+        <v>Umsatz Soll EUR</v>
       </c>
       <c r="M1" t="str">
-        <v>documentDate</v>
+        <v>Umsatz Haben EUR</v>
       </c>
       <c r="N1" t="str">
-        <v>postingDate</v>
+        <v>Stapelnummer</v>
       </c>
       <c r="O1" t="str">
-        <v>dueDate</v>
+        <v>Buchungssatznummer</v>
       </c>
       <c r="P1" t="str">
-        <v>dueDateNew</v>
+        <v>Geschäftsjahr</v>
       </c>
       <c r="Q1" t="str">
-        <v>fiscalYear</v>
+        <v>Steuerbetrag</v>
       </c>
       <c r="R1" t="str">
-        <v>postingPeriod</v>
+        <v>Leistungsdatum</v>
       </c>
       <c r="S1" t="str">
-        <v>executionDate</v>
+        <v>Fälligkeitsdatum</v>
       </c>
       <c r="T1" t="str">
-        <v>accountType</v>
+        <v>ID des Rechnungslegungsbereichs</v>
       </c>
       <c r="U1" t="str">
-        <v>accountNumber</v>
+        <v>Zuordnung</v>
       </c>
       <c r="V1" t="str">
-        <v>accountName</v>
+        <v>Referenz</v>
       </c>
       <c r="W1" t="str">
-        <v>GLAccountNumber</v>
+        <v>Belegart</v>
       </c>
       <c r="X1" t="str">
-        <v>GLAccountName</v>
+        <v>Buchungsdatum</v>
       </c>
       <c r="Y1" t="str">
-        <v>debtorNumber</v>
+        <v>Hauptbuchkonto</v>
       </c>
       <c r="Z1" t="str">
-        <v>debtorName</v>
+        <v>Debitorenkonto</v>
       </c>
       <c r="AA1" t="str">
-        <v>creditorNumber</v>
+        <v>Bezeichnung Debitorenkonto</v>
       </c>
       <c r="AB1" t="str">
-        <v>creditorName</v>
+        <v>Kreditorenkonto</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>Bezeichnung Kreditorenkonto</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>Sachkonto Gegenkonto</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>Bezeichnung Gegenkonto Sachkonto</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>Debitorenkonto Gegenkonto</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>Bezeichnung Gegenkonto Debitor</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>Kreditorenkonto Gegenkonto</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>Bezeichnung Gegenkonto Kreditor</v>
+      </c>
+      <c r="AJ1" t="str">
+        <v>Soll / Haben</v>
+      </c>
+      <c r="AK1" t="str">
+        <v>Saldo Belegwährung</v>
+      </c>
+      <c r="AL1" t="str">
+        <v>Belegfeld 2</v>
+      </c>
+      <c r="AM1" t="str">
+        <v>Umrechnungskurs</v>
+      </c>
+      <c r="AN1" t="str">
+        <v>Belegwährung</v>
+      </c>
+      <c r="AO1" t="str">
+        <v>Kostenstelle 1</v>
+      </c>
+      <c r="AP1" t="str">
+        <v>Kostenstelle 2</v>
+      </c>
+      <c r="AQ1" t="str">
+        <v>Umsatzsteuerschlüssel</v>
+      </c>
+      <c r="AR1" t="str">
+        <v>Buchungstext</v>
+      </c>
+      <c r="AS1" t="str">
+        <v>Steuersatz</v>
+      </c>
+      <c r="AT1" t="str">
+        <v>EU Steuersatz</v>
+      </c>
+      <c r="AU1" t="str">
+        <v>Kennung EB-Buchung</v>
+      </c>
+      <c r="AV1" t="str">
+        <v>Buchungsperiode</v>
+      </c>
+      <c r="AW1" t="str">
+        <v>Beleglink</v>
+      </c>
+      <c r="AX1" t="str">
+        <v>Skonto EUR</v>
+      </c>
+      <c r="AY1" t="str">
+        <v>Belegkopftext</v>
+      </c>
+      <c r="AZ1" t="str">
+        <v>Buchungsschlüssel</v>
+      </c>
+      <c r="BA1" t="str">
+        <v>Steuerbetrag Soll</v>
+      </c>
+      <c r="BB1" t="str">
+        <v>Steuerbetrag Haben</v>
+      </c>
+      <c r="BC1" t="str">
+        <v>Ausgleichsbeleg</v>
+      </c>
+      <c r="BD1" t="str">
+        <v>Datum des Ausgleichs</v>
+      </c>
+      <c r="BE1" t="str">
+        <v>Generalumkehr (GU)</v>
+      </c>
+      <c r="BF1" t="str">
+        <v>Art der Beleginformation 1</v>
+      </c>
+      <c r="BG1" t="str">
+        <v>Inhalt der Beleginformation 1</v>
+      </c>
+      <c r="BH1" t="str">
+        <v>Art der Beleginformation 2</v>
+      </c>
+      <c r="BI1" t="str">
+        <v>Inhalt der Beleginformation 2</v>
+      </c>
+      <c r="BJ1" t="str">
+        <v>Art der Beleginformation 3</v>
+      </c>
+      <c r="BK1" t="str">
+        <v>Inhalt der Beleginformation 3</v>
+      </c>
+      <c r="BL1" t="str">
+        <v>Art der Beleginformation 4</v>
+      </c>
+      <c r="BM1" t="str">
+        <v>Inhalt der Beleginformation 4</v>
+      </c>
+      <c r="BN1" t="str">
+        <v>Art der Beleginformation 5</v>
+      </c>
+      <c r="BO1" t="str">
+        <v>Inhalt der Beleginformation 5</v>
+      </c>
+      <c r="BP1" t="str">
+        <v>Art der Beleginformation 6</v>
+      </c>
+      <c r="BQ1" t="str">
+        <v>Inhalt der Beleginformation 6</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5049</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="str">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>43615.875</v>
+      </c>
+      <c r="E2" t="str">
+        <v>K</v>
+      </c>
+      <c r="G2" t="str">
+        <v>970</v>
+      </c>
+      <c r="K2" t="str">
+        <v>-4270.00</v>
+      </c>
+      <c r="L2" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M2" t="str">
+        <v>4270.00</v>
+      </c>
+      <c r="S2" s="1">
+        <v>43828.91666666667</v>
+      </c>
+      <c r="V2" t="str">
         <v>0</v>
       </c>
-      <c r="M2" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="O2" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="T2" t="str">
-        <v>K</v>
-      </c>
-      <c r="U2" t="str">
-        <v>27</v>
-      </c>
-      <c r="V2" t="str">
-        <v>ff</v>
-      </c>
-      <c r="AA2" t="str">
+      <c r="W2" t="str">
+        <v>ZP</v>
+      </c>
+      <c r="AB2" t="str">
         <v>1200</v>
       </c>
-      <c r="AB2" t="str">
+      <c r="AC2" t="str">
         <v>ffff</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5050</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="str">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>43591.875</v>
-      </c>
-      <c r="O3" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="T3" t="str">
-        <v>K</v>
-      </c>
-      <c r="U3" t="str">
-        <v>27</v>
-      </c>
-      <c r="V3" t="str">
-        <v>ff</v>
-      </c>
-      <c r="AA3" t="str">
-        <v>1200</v>
-      </c>
-      <c r="AB3" t="str">
-        <v>ffff</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5051</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="str">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>43591.875</v>
-      </c>
-      <c r="O4" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="T4" t="str">
-        <v>K</v>
-      </c>
-      <c r="U4" t="str">
-        <v>27</v>
-      </c>
-      <c r="V4" t="str">
-        <v>ff</v>
-      </c>
-      <c r="AA4" t="str">
-        <v>1200</v>
-      </c>
-      <c r="AB4" t="str">
-        <v>ffff</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5052</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="str">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>43607.875</v>
-      </c>
-      <c r="O5" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="T5" t="str">
-        <v>K</v>
-      </c>
-      <c r="U5" t="str">
-        <v>27</v>
-      </c>
-      <c r="V5" t="str">
-        <v>ff</v>
-      </c>
-      <c r="AA5" t="str">
-        <v>1200</v>
-      </c>
-      <c r="AB5" t="str">
-        <v>ffff</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5053</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="str">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>43669.875</v>
-      </c>
-      <c r="O6" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="T6" t="str">
-        <v>K</v>
-      </c>
-      <c r="U6" t="str">
-        <v>27</v>
-      </c>
-      <c r="V6" t="str">
-        <v>ff</v>
-      </c>
-      <c r="AA6" t="str">
-        <v>1200</v>
-      </c>
-      <c r="AB6" t="str">
-        <v>ffff</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5054</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="str">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="O7" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="T7" t="str">
-        <v>K</v>
-      </c>
-      <c r="U7" t="str">
-        <v>27</v>
-      </c>
-      <c r="V7" t="str">
-        <v>ff</v>
-      </c>
-      <c r="AA7" t="str">
-        <v>1200</v>
-      </c>
-      <c r="AB7" t="str">
-        <v>ffff</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5055</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="str">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="O8" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="T8" t="str">
-        <v>K</v>
-      </c>
-      <c r="U8" t="str">
-        <v>27</v>
-      </c>
-      <c r="V8" t="str">
-        <v>ff</v>
-      </c>
-      <c r="AA8" t="str">
-        <v>1200</v>
-      </c>
-      <c r="AB8" t="str">
-        <v>ffff</v>
+      <c r="AR2" t="str">
+        <v>RE Landgard 05/2019</v>
       </c>
     </row>
   </sheetData>

--- a/Code/public/Venator_Consuting_Exported_file_posting_1_1.xlsx
+++ b/Code/public/Venator_Consuting_Exported_file_posting_1_1.xlsx
@@ -606,7 +606,7 @@
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D2" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E2" t="str">
         <v>K</v>
@@ -627,7 +627,7 @@
         <v>0,00</v>
       </c>
       <c r="S2" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V2" t="str">
         <v>0</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D3" t="str">
-        <v>7.5.2019</v>
+        <v>07.05.2019</v>
       </c>
       <c r="E3" t="str">
         <v>K</v>
@@ -668,7 +668,7 @@
         <v>0,00</v>
       </c>
       <c r="S3" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V3" t="str">
         <v>0</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D4" t="str">
-        <v>7.5.2019</v>
+        <v>07.05.2019</v>
       </c>
       <c r="E4" t="str">
         <v>K</v>
@@ -709,7 +709,7 @@
         <v>0,00</v>
       </c>
       <c r="S4" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V4" t="str">
         <v>0</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D5" t="str">
-        <v>23.5.2019</v>
+        <v>23.05.2019</v>
       </c>
       <c r="E5" t="str">
         <v>K</v>
@@ -750,7 +750,7 @@
         <v>0,00</v>
       </c>
       <c r="S5" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V5" t="str">
         <v>0</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D6" t="str">
-        <v>24.7.2019</v>
+        <v>24.07.2019</v>
       </c>
       <c r="E6" t="str">
         <v>K</v>
@@ -791,7 +791,7 @@
         <v>0,00</v>
       </c>
       <c r="S6" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V6" t="str">
         <v>0</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D7" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E7" t="str">
         <v>K</v>
@@ -832,7 +832,7 @@
         <v>120.608,63</v>
       </c>
       <c r="S7" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V7" t="str">
         <v>0</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D8" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E8" t="str">
         <v>K</v>
@@ -870,7 +870,7 @@
         <v>86.678,72</v>
       </c>
       <c r="S8" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V8" t="str">
         <v>0</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D9" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E9" t="str">
         <v>K</v>
@@ -905,7 +905,7 @@
         <v>0,00</v>
       </c>
       <c r="S9" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V9" t="str">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E10" t="str">
         <v>K</v>
@@ -943,7 +943,7 @@
         <v>0,00</v>
       </c>
       <c r="S10" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V10" t="str">
         <v>0</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D11" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E11" t="str">
         <v>K</v>
@@ -981,7 +981,7 @@
         <v>319,79</v>
       </c>
       <c r="S11" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V11" t="str">
         <v>0</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D12" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E12" t="str">
         <v>K</v>
@@ -1016,7 +1016,7 @@
         <v>0,00</v>
       </c>
       <c r="S12" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V12" t="str">
         <v>0</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E13" t="str">
         <v>K</v>
@@ -1054,7 +1054,7 @@
         <v>0,00</v>
       </c>
       <c r="S13" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V13" t="str">
         <v>0</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D14" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E14" t="str">
         <v>K</v>
@@ -1092,7 +1092,7 @@
         <v>0,00</v>
       </c>
       <c r="S14" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V14" t="str">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
-        <v>9.5.2019</v>
+        <v>09.05.2019</v>
       </c>
       <c r="E15" t="str">
         <v>K</v>
@@ -1130,7 +1130,7 @@
         <v>0,00</v>
       </c>
       <c r="S15" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V15" t="str">
         <v>0</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E16" t="str">
         <v>K</v>
@@ -1168,7 +1168,7 @@
         <v>8.040,82</v>
       </c>
       <c r="S16" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V16" t="str">
         <v>0</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D17" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E17" t="str">
         <v>K</v>
@@ -1203,7 +1203,7 @@
         <v>0,00</v>
       </c>
       <c r="S17" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V17" t="str">
         <v>0</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E18" t="str">
         <v>K</v>
@@ -1241,7 +1241,7 @@
         <v>203,33</v>
       </c>
       <c r="S18" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V18" t="str">
         <v>0</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E19" t="str">
         <v>K</v>
@@ -1276,7 +1276,7 @@
         <v>0,00</v>
       </c>
       <c r="S19" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V19" t="str">
         <v>0</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E20" t="str">
         <v>K</v>
@@ -1314,7 +1314,7 @@
         <v>0,00</v>
       </c>
       <c r="S20" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V20" t="str">
         <v>0</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E21" t="str">
         <v>K</v>
@@ -1352,7 +1352,7 @@
         <v>0,00</v>
       </c>
       <c r="S21" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V21" t="str">
         <v>0</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="22" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
-        <v>13.6.2019</v>
+        <v>13.06.2019</v>
       </c>
       <c r="E22" t="str">
         <v>K</v>
@@ -1390,7 +1390,7 @@
         <v>0,00</v>
       </c>
       <c r="S22" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="V22" t="str">
         <v>0</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="23" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E23" t="str">
         <v>K</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="24" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E24" t="str">
         <v>K</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E25" t="str">
         <v>K</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E26" t="str">
         <v>K</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E27" t="str">
         <v>K</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E28" t="str">
         <v>K</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
-        <v>13.6.2019</v>
+        <v>13.06.2019</v>
       </c>
       <c r="E29" t="str">
         <v>K</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D30" t="str">
-        <v>13.6.2019</v>
+        <v>13.06.2019</v>
       </c>
       <c r="E30" t="str">
         <v>K</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D31" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E31" t="str">
         <v>K</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D32" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E32" t="str">
         <v>K</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="33" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D33" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E33" t="str">
         <v>K</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="34" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D34" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E34" t="str">
         <v>K</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="35" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D35" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E35" t="str">
         <v>K</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="36" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D36" t="str">
-        <v>9.5.2019</v>
+        <v>09.05.2019</v>
       </c>
       <c r="E36" t="str">
         <v>K</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="37" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D37" t="str">
-        <v>9.5.2019</v>
+        <v>09.05.2019</v>
       </c>
       <c r="E37" t="str">
         <v>K</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="38" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D38" t="str">
-        <v>9.5.2019</v>
+        <v>09.05.2019</v>
       </c>
       <c r="E38" t="str">
         <v>K</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="39" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D39" t="str">
-        <v>9.5.2019</v>
+        <v>09.05.2019</v>
       </c>
       <c r="E39" t="str">
         <v>K</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="40" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D40" t="str">
-        <v>15.5.2019</v>
+        <v>15.05.2019</v>
       </c>
       <c r="E40" t="str">
         <v>K</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D41" t="str">
-        <v>15.5.2019</v>
+        <v>15.05.2019</v>
       </c>
       <c r="E41" t="str">
         <v>K</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D42" t="str">
-        <v>15.5.2019</v>
+        <v>15.05.2019</v>
       </c>
       <c r="E42" t="str">
         <v>K</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D43" t="str">
-        <v>25.9.2019</v>
+        <v>25.09.2019</v>
       </c>
       <c r="E43" t="str">
         <v>K</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D44" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E44" t="str">
         <v>K</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="45" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D45" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E45" t="str">
         <v>K</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="46" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D46" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E46" t="str">
         <v>K</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="47" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D47" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E47" t="str">
         <v>K</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="48" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D48" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E48" t="str">
         <v>K</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="49" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D49" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E49" t="str">
         <v>K</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="50" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D50" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E50" t="str">
         <v>K</v>
@@ -2420,6 +2420,9 @@
       <c r="G50" t="str">
         <v>550</v>
       </c>
+      <c r="H50" t="str">
+        <v>account 550</v>
+      </c>
       <c r="K50" t="str">
         <v>77.152,00</v>
       </c>
@@ -2453,7 +2456,7 @@
     </row>
     <row r="51" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D51" t="str">
-        <v>8.5.2019</v>
+        <v>08.05.2019</v>
       </c>
       <c r="E51" t="str">
         <v>K</v>
@@ -2461,6 +2464,9 @@
       <c r="G51" t="str">
         <v>550</v>
       </c>
+      <c r="H51" t="str">
+        <v>account 550</v>
+      </c>
       <c r="K51" t="str">
         <v>-1.407,00</v>
       </c>
@@ -2494,7 +2500,7 @@
     </row>
     <row r="52" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D52" t="str">
-        <v>7.6.2019</v>
+        <v>07.06.2019</v>
       </c>
       <c r="E52" t="str">
         <v>K</v>
@@ -2502,6 +2508,9 @@
       <c r="G52" t="str">
         <v>550</v>
       </c>
+      <c r="H52" t="str">
+        <v>account 550</v>
+      </c>
       <c r="K52" t="str">
         <v>-1.411,00</v>
       </c>
@@ -2535,7 +2544,7 @@
     </row>
     <row r="53" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D53" t="str">
-        <v>8.7.2019</v>
+        <v>08.07.2019</v>
       </c>
       <c r="E53" t="str">
         <v>K</v>
@@ -2543,6 +2552,9 @@
       <c r="G53" t="str">
         <v>550</v>
       </c>
+      <c r="H53" t="str">
+        <v>account 550</v>
+      </c>
       <c r="K53" t="str">
         <v>-1.507,00</v>
       </c>
@@ -2576,7 +2588,7 @@
     </row>
     <row r="54" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D54" t="str">
-        <v>10.7.2019</v>
+        <v>10.07.2019</v>
       </c>
       <c r="E54" t="str">
         <v>K</v>
@@ -2584,6 +2596,9 @@
       <c r="G54" t="str">
         <v>550</v>
       </c>
+      <c r="H54" t="str">
+        <v>account 550</v>
+      </c>
       <c r="K54" t="str">
         <v>-1.507,00</v>
       </c>
@@ -2617,7 +2632,7 @@
     </row>
     <row r="55" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D55" t="str">
-        <v>8.8.2019</v>
+        <v>08.08.2019</v>
       </c>
       <c r="E55" t="str">
         <v>K</v>
@@ -2625,6 +2640,9 @@
       <c r="G55" t="str">
         <v>550</v>
       </c>
+      <c r="H55" t="str">
+        <v>account 550</v>
+      </c>
       <c r="K55" t="str">
         <v>-1.511,00</v>
       </c>
@@ -2658,7 +2676,7 @@
     </row>
     <row r="56" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D56" t="str">
-        <v>12.8.2019</v>
+        <v>12.08.2019</v>
       </c>
       <c r="E56" t="str">
         <v>K</v>
@@ -2666,6 +2684,9 @@
       <c r="G56" t="str">
         <v>550</v>
       </c>
+      <c r="H56" t="str">
+        <v>account 550</v>
+      </c>
       <c r="K56" t="str">
         <v>-1.511,00</v>
       </c>
@@ -2699,7 +2720,7 @@
     </row>
     <row r="57" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D57" t="str">
-        <v>6.9.2019</v>
+        <v>06.09.2019</v>
       </c>
       <c r="E57" t="str">
         <v>K</v>
@@ -2707,6 +2728,9 @@
       <c r="G57" t="str">
         <v>550</v>
       </c>
+      <c r="H57" t="str">
+        <v>account 550</v>
+      </c>
       <c r="K57" t="str">
         <v>-1.514,50</v>
       </c>
@@ -2740,7 +2764,7 @@
     </row>
     <row r="58" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D58" t="str">
-        <v>10.9.2019</v>
+        <v>10.09.2019</v>
       </c>
       <c r="E58" t="str">
         <v>K</v>
@@ -2748,6 +2772,9 @@
       <c r="G58" t="str">
         <v>550</v>
       </c>
+      <c r="H58" t="str">
+        <v>account 550</v>
+      </c>
       <c r="K58" t="str">
         <v>-1.514,50</v>
       </c>
@@ -2781,7 +2808,7 @@
     </row>
     <row r="59" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D59" t="str">
-        <v>8.10.2019</v>
+        <v>08.10.2019</v>
       </c>
       <c r="E59" t="str">
         <v>K</v>
@@ -2789,6 +2816,9 @@
       <c r="G59" t="str">
         <v>550</v>
       </c>
+      <c r="H59" t="str">
+        <v>account 550</v>
+      </c>
       <c r="K59" t="str">
         <v>-1.518,50</v>
       </c>
@@ -2822,7 +2852,7 @@
     </row>
     <row r="60" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D60" t="str">
-        <v>8.10.2019</v>
+        <v>08.10.2019</v>
       </c>
       <c r="E60" t="str">
         <v>K</v>
@@ -2830,6 +2860,9 @@
       <c r="G60" t="str">
         <v>550</v>
       </c>
+      <c r="H60" t="str">
+        <v>account 550</v>
+      </c>
       <c r="K60" t="str">
         <v>-1.518,50</v>
       </c>
@@ -2863,13 +2896,16 @@
     </row>
     <row r="61" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D61" t="str">
-        <v>8.11.2019</v>
+        <v>08.11.2019</v>
       </c>
       <c r="E61" t="str">
         <v>K</v>
       </c>
       <c r="G61" t="str">
         <v>550</v>
+      </c>
+      <c r="H61" t="str">
+        <v>account 550</v>
       </c>
       <c r="K61" t="str">
         <v>-1.522,00</v>
@@ -2912,6 +2948,9 @@
       <c r="G62" t="str">
         <v>550</v>
       </c>
+      <c r="H62" t="str">
+        <v>account 550</v>
+      </c>
       <c r="K62" t="str">
         <v>-1.522,00</v>
       </c>
@@ -2945,13 +2984,16 @@
     </row>
     <row r="63" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D63" t="str">
-        <v>9.12.2019</v>
+        <v>09.12.2019</v>
       </c>
       <c r="E63" t="str">
         <v>K</v>
       </c>
       <c r="G63" t="str">
         <v>550</v>
+      </c>
+      <c r="H63" t="str">
+        <v>account 550</v>
       </c>
       <c r="K63" t="str">
         <v>-1.526,00</v>
@@ -2994,6 +3036,9 @@
       <c r="G64" t="str">
         <v>550</v>
       </c>
+      <c r="H64" t="str">
+        <v>account 550</v>
+      </c>
       <c r="K64" t="str">
         <v>-1.526,00</v>
       </c>
@@ -3027,7 +3072,7 @@
     </row>
     <row r="65" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D65" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E65" t="str">
         <v>K</v>
@@ -3068,7 +3113,7 @@
     </row>
     <row r="66" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D66" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="E66" t="str">
         <v>K</v>
@@ -3106,7 +3151,7 @@
     </row>
     <row r="67" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D67" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E67" t="str">
         <v>K</v>
@@ -3144,7 +3189,7 @@
     </row>
     <row r="68" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D68" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E68" t="str">
         <v>K</v>
@@ -3182,7 +3227,7 @@
     </row>
     <row r="69" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D69" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E69" t="str">
         <v>K</v>
@@ -3220,7 +3265,7 @@
     </row>
     <row r="70" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D70" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E70" t="str">
         <v>K</v>
@@ -3258,7 +3303,7 @@
     </row>
     <row r="71" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D71" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E71" t="str">
         <v>K</v>
@@ -3296,7 +3341,7 @@
     </row>
     <row r="72" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D72" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E72" t="str">
         <v>K</v>
@@ -3334,7 +3379,7 @@
     </row>
     <row r="73" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D73" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E73" t="str">
         <v>K</v>
@@ -3372,7 +3417,7 @@
     </row>
     <row r="74" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D74" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E74" t="str">
         <v>K</v>
@@ -3410,7 +3455,7 @@
     </row>
     <row r="75" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D75" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E75" t="str">
         <v>K</v>
@@ -3448,7 +3493,7 @@
     </row>
     <row r="76" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D76" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E76" t="str">
         <v>K</v>
@@ -3486,7 +3531,7 @@
     </row>
     <row r="77" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D77" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E77" t="str">
         <v>K</v>
@@ -3524,7 +3569,7 @@
     </row>
     <row r="78" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D78" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E78" t="str">
         <v>K</v>
@@ -3562,7 +3607,7 @@
     </row>
     <row r="79" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D79" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E79" t="str">
         <v>K</v>
@@ -3600,7 +3645,7 @@
     </row>
     <row r="80" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D80" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E80" t="str">
         <v>K</v>
@@ -3638,7 +3683,7 @@
     </row>
     <row r="81" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D81" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E81" t="str">
         <v>K</v>
@@ -3676,7 +3721,7 @@
     </row>
     <row r="82" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D82" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E82" t="str">
         <v>K</v>
@@ -3714,7 +3759,7 @@
     </row>
     <row r="83" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D83" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E83" t="str">
         <v>K</v>
@@ -3752,7 +3797,7 @@
     </row>
     <row r="84" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D84" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E84" t="str">
         <v>K</v>
@@ -3790,7 +3835,7 @@
     </row>
     <row r="85" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D85" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E85" t="str">
         <v>K</v>
@@ -3828,7 +3873,7 @@
     </row>
     <row r="86" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D86" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E86" t="str">
         <v>K</v>
@@ -3866,7 +3911,7 @@
     </row>
     <row r="87" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D87" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E87" t="str">
         <v>K</v>
@@ -3904,7 +3949,7 @@
     </row>
     <row r="88" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D88" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E88" t="str">
         <v>K</v>
@@ -3942,7 +3987,7 @@
     </row>
     <row r="89" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D89" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E89" t="str">
         <v>K</v>
@@ -3980,7 +4025,7 @@
     </row>
     <row r="90" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D90" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E90" t="str">
         <v>K</v>
@@ -4018,7 +4063,7 @@
     </row>
     <row r="91" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D91" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E91" t="str">
         <v>K</v>
@@ -4056,7 +4101,7 @@
     </row>
     <row r="92" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D92" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E92" t="str">
         <v>K</v>
@@ -4094,7 +4139,7 @@
     </row>
     <row r="93" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D93" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E93" t="str">
         <v>K</v>
@@ -4132,7 +4177,7 @@
     </row>
     <row r="94" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D94" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E94" t="str">
         <v>K</v>
@@ -4170,7 +4215,7 @@
     </row>
     <row r="95" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D95" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E95" t="str">
         <v>K</v>
@@ -4208,7 +4253,7 @@
     </row>
     <row r="96" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D96" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E96" t="str">
         <v>K</v>
@@ -4246,7 +4291,7 @@
     </row>
     <row r="97" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D97" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E97" t="str">
         <v>K</v>
@@ -4284,7 +4329,7 @@
     </row>
     <row r="98" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D98" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E98" t="str">
         <v>K</v>
@@ -4322,7 +4367,7 @@
     </row>
     <row r="99" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D99" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E99" t="str">
         <v>K</v>
@@ -4360,7 +4405,7 @@
     </row>
     <row r="100" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D100" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E100" t="str">
         <v>K</v>
@@ -4398,7 +4443,7 @@
     </row>
     <row r="101" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D101" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E101" t="str">
         <v>K</v>
@@ -4436,7 +4481,7 @@
     </row>
     <row r="102" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D102" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E102" t="str">
         <v>K</v>
@@ -4474,7 +4519,7 @@
     </row>
     <row r="103" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D103" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E103" t="str">
         <v>K</v>
@@ -4512,7 +4557,7 @@
     </row>
     <row r="104" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D104" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E104" t="str">
         <v>K</v>
@@ -4550,7 +4595,7 @@
     </row>
     <row r="105" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D105" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E105" t="str">
         <v>K</v>
@@ -4588,7 +4633,7 @@
     </row>
     <row r="106" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D106" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E106" t="str">
         <v>K</v>
@@ -4626,7 +4671,7 @@
     </row>
     <row r="107" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D107" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E107" t="str">
         <v>K</v>
@@ -4664,7 +4709,7 @@
     </row>
     <row r="108" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D108" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E108" t="str">
         <v>K</v>
@@ -4702,7 +4747,7 @@
     </row>
     <row r="109" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D109" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E109" t="str">
         <v>K</v>
@@ -4740,7 +4785,7 @@
     </row>
     <row r="110" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D110" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E110" t="str">
         <v>K</v>
@@ -4778,7 +4823,7 @@
     </row>
     <row r="111" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D111" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E111" t="str">
         <v>K</v>
@@ -4816,7 +4861,7 @@
     </row>
     <row r="112" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D112" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E112" t="str">
         <v>K</v>
@@ -4854,7 +4899,7 @@
     </row>
     <row r="113" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D113" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E113" t="str">
         <v>K</v>
@@ -4892,7 +4937,7 @@
     </row>
     <row r="114" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D114" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E114" t="str">
         <v>K</v>
@@ -4930,7 +4975,7 @@
     </row>
     <row r="115" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D115" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E115" t="str">
         <v>K</v>
@@ -4968,7 +5013,7 @@
     </row>
     <row r="116" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D116" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E116" t="str">
         <v>K</v>
@@ -5006,7 +5051,7 @@
     </row>
     <row r="117" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D117" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E117" t="str">
         <v>K</v>
@@ -5044,7 +5089,7 @@
     </row>
     <row r="118" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D118" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E118" t="str">
         <v>K</v>
@@ -5082,7 +5127,7 @@
     </row>
     <row r="119" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D119" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E119" t="str">
         <v>K</v>
@@ -5120,7 +5165,7 @@
     </row>
     <row r="120" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D120" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E120" t="str">
         <v>K</v>
@@ -5158,7 +5203,7 @@
     </row>
     <row r="121" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D121" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E121" t="str">
         <v>K</v>
@@ -5196,7 +5241,7 @@
     </row>
     <row r="122" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D122" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E122" t="str">
         <v>K</v>
@@ -5231,7 +5276,7 @@
     </row>
     <row r="123" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D123" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E123" t="str">
         <v>K</v>
@@ -5266,7 +5311,7 @@
     </row>
     <row r="124" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D124" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E124" t="str">
         <v>K</v>
@@ -5301,7 +5346,7 @@
     </row>
     <row r="125" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D125" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E125" t="str">
         <v>K</v>
@@ -5336,7 +5381,7 @@
     </row>
     <row r="126" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D126" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E126" t="str">
         <v>K</v>
@@ -5371,7 +5416,7 @@
     </row>
     <row r="127" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D127" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E127" t="str">
         <v>K</v>
@@ -5406,7 +5451,7 @@
     </row>
     <row r="128" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D128" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="E128" t="str">
         <v>K</v>
@@ -5441,7 +5486,7 @@
     </row>
     <row r="129" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D129" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E129" t="str">
         <v>K</v>
@@ -5479,7 +5524,7 @@
     </row>
     <row r="130" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D130" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E130" t="str">
         <v>K</v>
@@ -5517,7 +5562,7 @@
     </row>
     <row r="131" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D131" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E131" t="str">
         <v>K</v>
@@ -5555,7 +5600,7 @@
     </row>
     <row r="132" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D132" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E132" t="str">
         <v>K</v>
@@ -5593,7 +5638,7 @@
     </row>
     <row r="133" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D133" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E133" t="str">
         <v>K</v>
@@ -5631,7 +5676,7 @@
     </row>
     <row r="134" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D134" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E134" t="str">
         <v>K</v>
@@ -5669,7 +5714,7 @@
     </row>
     <row r="135" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D135" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E135" t="str">
         <v>K</v>
@@ -5707,7 +5752,7 @@
     </row>
     <row r="136" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D136" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E136" t="str">
         <v>K</v>
@@ -5745,7 +5790,7 @@
     </row>
     <row r="137" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D137" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E137" t="str">
         <v>K</v>
@@ -5783,7 +5828,7 @@
     </row>
     <row r="138" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D138" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E138" t="str">
         <v>K</v>
@@ -5821,7 +5866,7 @@
     </row>
     <row r="139" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D139" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E139" t="str">
         <v>K</v>
@@ -5859,7 +5904,7 @@
     </row>
     <row r="140" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D140" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E140" t="str">
         <v>K</v>
@@ -5897,7 +5942,7 @@
     </row>
     <row r="141" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D141" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E141" t="str">
         <v>K</v>
@@ -5935,7 +5980,7 @@
     </row>
     <row r="142" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D142" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E142" t="str">
         <v>K</v>
@@ -5973,7 +6018,7 @@
     </row>
     <row r="143" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D143" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E143" t="str">
         <v>K</v>
@@ -6011,7 +6056,7 @@
     </row>
     <row r="144" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D144" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E144" t="str">
         <v>K</v>
@@ -6049,7 +6094,7 @@
     </row>
     <row r="145" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D145" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E145" t="str">
         <v>K</v>
@@ -6087,7 +6132,7 @@
     </row>
     <row r="146" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D146" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E146" t="str">
         <v>K</v>
@@ -6125,7 +6170,7 @@
     </row>
     <row r="147" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D147" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E147" t="str">
         <v>K</v>
@@ -6163,7 +6208,7 @@
     </row>
     <row r="148" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D148" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E148" t="str">
         <v>K</v>
@@ -6201,7 +6246,7 @@
     </row>
     <row r="149" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D149" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E149" t="str">
         <v>K</v>
@@ -6239,7 +6284,7 @@
     </row>
     <row r="150" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D150" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E150" t="str">
         <v>K</v>
@@ -6277,7 +6322,7 @@
     </row>
     <row r="151" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D151" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E151" t="str">
         <v>K</v>
@@ -6315,7 +6360,7 @@
     </row>
     <row r="152" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D152" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E152" t="str">
         <v>K</v>
@@ -6353,7 +6398,7 @@
     </row>
     <row r="153" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D153" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E153" t="str">
         <v>K</v>
@@ -6391,7 +6436,7 @@
     </row>
     <row r="154" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D154" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E154" t="str">
         <v>K</v>
@@ -6429,7 +6474,7 @@
     </row>
     <row r="155" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D155" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E155" t="str">
         <v>K</v>
@@ -6467,7 +6512,7 @@
     </row>
     <row r="156" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D156" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E156" t="str">
         <v>K</v>
@@ -6505,7 +6550,7 @@
     </row>
     <row r="157" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D157" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E157" t="str">
         <v>K</v>
@@ -6543,7 +6588,7 @@
     </row>
     <row r="158" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D158" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E158" t="str">
         <v>K</v>
@@ -6581,7 +6626,7 @@
     </row>
     <row r="159" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D159" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E159" t="str">
         <v>K</v>
@@ -6619,7 +6664,7 @@
     </row>
     <row r="160" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D160" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E160" t="str">
         <v>K</v>
@@ -6657,7 +6702,7 @@
     </row>
     <row r="161" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D161" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E161" t="str">
         <v>K</v>
@@ -6695,7 +6740,7 @@
     </row>
     <row r="162" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D162" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E162" t="str">
         <v>K</v>
@@ -6733,7 +6778,7 @@
     </row>
     <row r="163" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D163" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E163" t="str">
         <v>K</v>
@@ -6771,7 +6816,7 @@
     </row>
     <row r="164" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D164" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E164" t="str">
         <v>K</v>
@@ -6809,7 +6854,7 @@
     </row>
     <row r="165" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D165" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E165" t="str">
         <v>K</v>
@@ -6847,7 +6892,7 @@
     </row>
     <row r="166" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D166" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="E166" t="str">
         <v>K</v>
@@ -6885,7 +6930,7 @@
     </row>
     <row r="167" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D167" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E167" t="str">
         <v>K</v>
@@ -6923,7 +6968,7 @@
     </row>
     <row r="168" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D168" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E168" t="str">
         <v>K</v>
@@ -6961,7 +7006,7 @@
     </row>
     <row r="169" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D169" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E169" t="str">
         <v>K</v>
@@ -6999,7 +7044,7 @@
     </row>
     <row r="170" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D170" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E170" t="str">
         <v>K</v>
@@ -7037,7 +7082,7 @@
     </row>
     <row r="171" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D171" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E171" t="str">
         <v>K</v>
@@ -7075,7 +7120,7 @@
     </row>
     <row r="172" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D172" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E172" t="str">
         <v>K</v>
@@ -7113,7 +7158,7 @@
     </row>
     <row r="173" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D173" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E173" t="str">
         <v>K</v>
@@ -7151,7 +7196,7 @@
     </row>
     <row r="174" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D174" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E174" t="str">
         <v>K</v>
@@ -7189,7 +7234,7 @@
     </row>
     <row r="175" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D175" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E175" t="str">
         <v>K</v>
@@ -7227,7 +7272,7 @@
     </row>
     <row r="176" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D176" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E176" t="str">
         <v>K</v>
@@ -7265,7 +7310,7 @@
     </row>
     <row r="177" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D177" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E177" t="str">
         <v>K</v>
@@ -7303,7 +7348,7 @@
     </row>
     <row r="178" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D178" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E178" t="str">
         <v>K</v>
@@ -7341,7 +7386,7 @@
     </row>
     <row r="179" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D179" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E179" t="str">
         <v>K</v>
@@ -7379,7 +7424,7 @@
     </row>
     <row r="180" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D180" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E180" t="str">
         <v>K</v>
@@ -7417,7 +7462,7 @@
     </row>
     <row r="181" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D181" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E181" t="str">
         <v>K</v>
@@ -7455,7 +7500,7 @@
     </row>
     <row r="182" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D182" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E182" t="str">
         <v>K</v>
@@ -7493,7 +7538,7 @@
     </row>
     <row r="183" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D183" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E183" t="str">
         <v>K</v>
@@ -7531,7 +7576,7 @@
     </row>
     <row r="184" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D184" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E184" t="str">
         <v>K</v>
@@ -7569,7 +7614,7 @@
     </row>
     <row r="185" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D185" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E185" t="str">
         <v>K</v>
@@ -7607,7 +7652,7 @@
     </row>
     <row r="186" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D186" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E186" t="str">
         <v>K</v>
@@ -7645,7 +7690,7 @@
     </row>
     <row r="187" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D187" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E187" t="str">
         <v>K</v>
@@ -7683,7 +7728,7 @@
     </row>
     <row r="188" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D188" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E188" t="str">
         <v>K</v>
@@ -7721,7 +7766,7 @@
     </row>
     <row r="189" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D189" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E189" t="str">
         <v>K</v>
@@ -7759,7 +7804,7 @@
     </row>
     <row r="190" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D190" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E190" t="str">
         <v>K</v>
@@ -7797,7 +7842,7 @@
     </row>
     <row r="191" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D191" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E191" t="str">
         <v>K</v>
@@ -7835,7 +7880,7 @@
     </row>
     <row r="192" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D192" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E192" t="str">
         <v>K</v>
@@ -7873,7 +7918,7 @@
     </row>
     <row r="193" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D193" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E193" t="str">
         <v>K</v>
@@ -7911,7 +7956,7 @@
     </row>
     <row r="194" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D194" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E194" t="str">
         <v>K</v>
@@ -7949,7 +7994,7 @@
     </row>
     <row r="195" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D195" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E195" t="str">
         <v>K</v>
@@ -7987,7 +8032,7 @@
     </row>
     <row r="196" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D196" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E196" t="str">
         <v>K</v>
@@ -8025,7 +8070,7 @@
     </row>
     <row r="197" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D197" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="E197" t="str">
         <v>K</v>
@@ -8063,7 +8108,7 @@
     </row>
     <row r="198" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D198" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E198" t="str">
         <v>K</v>
@@ -8101,7 +8146,7 @@
     </row>
     <row r="199" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D199" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E199" t="str">
         <v>K</v>
@@ -8139,7 +8184,7 @@
     </row>
     <row r="200" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D200" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E200" t="str">
         <v>K</v>
@@ -8177,7 +8222,7 @@
     </row>
     <row r="201" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D201" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E201" t="str">
         <v>K</v>
@@ -8215,7 +8260,7 @@
     </row>
     <row r="202" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D202" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E202" t="str">
         <v>K</v>
@@ -8253,7 +8298,7 @@
     </row>
     <row r="203" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D203" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E203" t="str">
         <v>K</v>
@@ -8291,7 +8336,7 @@
     </row>
     <row r="204" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D204" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E204" t="str">
         <v>K</v>
@@ -8329,7 +8374,7 @@
     </row>
     <row r="205" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D205" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E205" t="str">
         <v>K</v>
@@ -8367,7 +8412,7 @@
     </row>
     <row r="206" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D206" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E206" t="str">
         <v>K</v>
@@ -8405,7 +8450,7 @@
     </row>
     <row r="207" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D207" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E207" t="str">
         <v>K</v>
@@ -8443,7 +8488,7 @@
     </row>
     <row r="208" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D208" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E208" t="str">
         <v>K</v>
@@ -8481,7 +8526,7 @@
     </row>
     <row r="209" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D209" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E209" t="str">
         <v>K</v>
@@ -8519,7 +8564,7 @@
     </row>
     <row r="210" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D210" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E210" t="str">
         <v>K</v>
@@ -8555,12 +8600,12 @@
         <v>Auflösung RS 06/2019</v>
       </c>
       <c r="BD210" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="211" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D211" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E211" t="str">
         <v>K</v>
@@ -8596,12 +8641,12 @@
         <v>Auflösung RS 06/2019 Zsn.Massekredit</v>
       </c>
       <c r="BD211" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="212" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D212" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E212" t="str">
         <v>K</v>
@@ -8637,12 +8682,12 @@
         <v>Auflösung RS 06/2019</v>
       </c>
       <c r="BD212" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="213" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D213" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E213" t="str">
         <v>K</v>
@@ -8678,12 +8723,12 @@
         <v>Auflösung RS 06/2019</v>
       </c>
       <c r="BD213" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="214" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D214" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E214" t="str">
         <v>K</v>
@@ -8719,12 +8764,12 @@
         <v>Auflösung RS 06/2019</v>
       </c>
       <c r="BD214" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="215" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D215" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E215" t="str">
         <v>K</v>
@@ -8760,12 +8805,12 @@
         <v>Auflösung RS 06/2019</v>
       </c>
       <c r="BD215" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="216" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D216" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E216" t="str">
         <v>K</v>
@@ -8801,12 +8846,12 @@
         <v>Auflösung RS 06/2019</v>
       </c>
       <c r="BD216" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="217" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D217" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E217" t="str">
         <v>K</v>
@@ -8842,12 +8887,12 @@
         <v>Auflösung RS 06/2019</v>
       </c>
       <c r="BD217" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="218" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D218" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E218" t="str">
         <v>K</v>
@@ -8883,12 +8928,12 @@
         <v>Auflösung RS 06/2019</v>
       </c>
       <c r="BD218" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="219" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D219" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="E219" t="str">
         <v>K</v>
@@ -8924,12 +8969,12 @@
         <v>Auflösung RS 06/2019</v>
       </c>
       <c r="BD219" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="220" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D220" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E220" t="str">
         <v>K</v>
@@ -8965,12 +9010,12 @@
         <v>UDG/resolution Abgrenzung 07/2019</v>
       </c>
       <c r="BD220" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="221" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D221" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E221" t="str">
         <v>K</v>
@@ -9006,12 +9051,12 @@
         <v>RS 07/2019 WE</v>
       </c>
       <c r="BD221" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="222" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D222" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E222" t="str">
         <v>K</v>
@@ -9047,12 +9092,12 @@
         <v>RS 07/2019 WE</v>
       </c>
       <c r="BD222" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="223" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D223" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E223" t="str">
         <v>K</v>
@@ -9088,12 +9133,12 @@
         <v>RS 07/2019 WE</v>
       </c>
       <c r="BD223" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="224" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D224" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E224" t="str">
         <v>K</v>
@@ -9129,12 +9174,12 @@
         <v>RS 07/2019 DSV+Elho</v>
       </c>
       <c r="BD224" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="225" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D225" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E225" t="str">
         <v>K</v>
@@ -9170,12 +9215,12 @@
         <v>RS 07/2019 DSV+Elho</v>
       </c>
       <c r="BD225" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="226" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D226" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E226" t="str">
         <v>K</v>
@@ -9211,12 +9256,12 @@
         <v>RS 07/2019 WE</v>
       </c>
       <c r="BD226" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="227" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D227" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E227" t="str">
         <v>K</v>
@@ -9252,12 +9297,12 @@
         <v>RS 07/2019 WE</v>
       </c>
       <c r="BD227" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="228" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D228" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E228" t="str">
         <v>K</v>
@@ -9293,12 +9338,12 @@
         <v>RS 07/2019 WE</v>
       </c>
       <c r="BD228" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="229" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D229" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E229" t="str">
         <v>K</v>
@@ -9334,12 +9379,12 @@
         <v>RS 07/2019 WE</v>
       </c>
       <c r="BD229" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="230" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D230" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E230" t="str">
         <v>K</v>
@@ -9375,12 +9420,12 @@
         <v>RS 07/2019 WE_2</v>
       </c>
       <c r="BD230" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="231" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D231" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E231" t="str">
         <v>K</v>
@@ -9416,12 +9461,12 @@
         <v>RS 07/2019 WE_3</v>
       </c>
       <c r="BD231" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="232" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D232" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E232" t="str">
         <v>K</v>
@@ -9457,12 +9502,12 @@
         <v>RS 07/2019 WE_3</v>
       </c>
       <c r="BD232" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="233" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D233" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E233" t="str">
         <v>K</v>
@@ -9498,12 +9543,12 @@
         <v>RS 07/2019 WE_3</v>
       </c>
       <c r="BD233" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="234" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D234" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E234" t="str">
         <v>K</v>
@@ -9539,12 +9584,12 @@
         <v>RS 07/2019 WE_3 Lemm+Stet+TTH</v>
       </c>
       <c r="BD234" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="235" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D235" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E235" t="str">
         <v>K</v>
@@ -9580,12 +9625,12 @@
         <v>RS 07/2019 WE_3 Etiketten+Verpackung</v>
       </c>
       <c r="BD235" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="236" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D236" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E236" t="str">
         <v>K</v>
@@ -9621,12 +9666,12 @@
         <v>RS 07/2019 Stadtwerke Heidelberg</v>
       </c>
       <c r="BD236" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="237" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D237" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E237" t="str">
         <v>K</v>
@@ -9662,12 +9707,12 @@
         <v>RS 07/2019 Rieck, Entsorgung</v>
       </c>
       <c r="BD237" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="238" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D238" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E238" t="str">
         <v>K</v>
@@ -9703,12 +9748,12 @@
         <v>RS 07/2019 Brandmeldeanlage</v>
       </c>
       <c r="BD238" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="239" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D239" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E239" t="str">
         <v>K</v>
@@ -9744,12 +9789,12 @@
         <v>RS 07/2019 arbeitsmed.Betreuung</v>
       </c>
       <c r="BD239" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="240" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D240" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E240" t="str">
         <v>K</v>
@@ -9785,12 +9830,12 @@
         <v>RS 07/2019 G-25</v>
       </c>
       <c r="BD240" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="241" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D241" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E241" t="str">
         <v>K</v>
@@ -9826,12 +9871,12 @@
         <v>RS 07/2019 G-25</v>
       </c>
       <c r="BD241" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="242" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D242" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E242" t="str">
         <v>K</v>
@@ -9867,12 +9912,12 @@
         <v>RS 07/2019 Trifinance </v>
       </c>
       <c r="BD242" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="243" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D243" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="E243" t="str">
         <v>K</v>
@@ -9905,12 +9950,12 @@
         <v>Miete 07/2019</v>
       </c>
       <c r="BD243" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="244" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D244" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E244" t="str">
         <v>K</v>
@@ -9943,12 +9988,12 @@
         <v>Auflösung RS 07/2019</v>
       </c>
       <c r="BD244" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="245" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D245" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E245" t="str">
         <v>K</v>
@@ -9981,12 +10026,12 @@
         <v>Auflösung RS 07/2019</v>
       </c>
       <c r="BD245" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="246" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D246" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E246" t="str">
         <v>K</v>
@@ -10019,12 +10064,12 @@
         <v>Auflösung RS 07/2019</v>
       </c>
       <c r="BD246" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="247" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D247" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E247" t="str">
         <v>K</v>
@@ -10057,12 +10102,12 @@
         <v>Auflösung RS 07/2019</v>
       </c>
       <c r="BD247" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="248" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D248" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E248" t="str">
         <v>K</v>
@@ -10095,12 +10140,12 @@
         <v>Auflösung RS 07/2019</v>
       </c>
       <c r="BD248" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="249" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D249" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E249" t="str">
         <v>K</v>
@@ -10133,12 +10178,12 @@
         <v>Auflösung RS 07/2019</v>
       </c>
       <c r="BD249" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="250" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D250" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E250" t="str">
         <v>K</v>
@@ -10171,12 +10216,12 @@
         <v>Auflösung RS 07/2019</v>
       </c>
       <c r="BD250" t="str">
-        <v>15.1.2020</v>
+        <v>15.01.2020</v>
       </c>
     </row>
     <row r="251" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D251" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E251" t="str">
         <v>K</v>
@@ -10211,7 +10256,7 @@
     </row>
     <row r="252" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D252" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E252" t="str">
         <v>K</v>
@@ -10246,7 +10291,7 @@
     </row>
     <row r="253" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D253" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E253" t="str">
         <v>K</v>
@@ -10281,7 +10326,7 @@
     </row>
     <row r="254" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D254" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E254" t="str">
         <v>K</v>
@@ -10316,7 +10361,7 @@
     </row>
     <row r="255" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D255" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E255" t="str">
         <v>K</v>
@@ -10351,7 +10396,7 @@
     </row>
     <row r="256" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D256" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E256" t="str">
         <v>K</v>
@@ -10386,7 +10431,7 @@
     </row>
     <row r="257" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D257" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E257" t="str">
         <v>K</v>
@@ -10421,7 +10466,7 @@
     </row>
     <row r="258" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D258" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E258" t="str">
         <v>K</v>
@@ -10456,7 +10501,7 @@
     </row>
     <row r="259" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D259" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E259" t="str">
         <v>K</v>
@@ -10491,7 +10536,7 @@
     </row>
     <row r="260" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D260" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E260" t="str">
         <v>K</v>
@@ -10526,7 +10571,7 @@
     </row>
     <row r="261" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D261" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E261" t="str">
         <v>K</v>
@@ -10561,7 +10606,7 @@
     </row>
     <row r="262" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D262" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E262" t="str">
         <v>K</v>
@@ -10596,7 +10641,7 @@
     </row>
     <row r="263" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D263" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E263" t="str">
         <v>K</v>
@@ -10631,7 +10676,7 @@
     </row>
     <row r="264" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D264" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E264" t="str">
         <v>K</v>
@@ -10666,7 +10711,7 @@
     </row>
     <row r="265" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D265" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E265" t="str">
         <v>K</v>
@@ -10701,7 +10746,7 @@
     </row>
     <row r="266" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D266" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E266" t="str">
         <v>K</v>
@@ -10736,7 +10781,7 @@
     </row>
     <row r="267" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D267" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E267" t="str">
         <v>K</v>
@@ -10771,7 +10816,7 @@
     </row>
     <row r="268" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D268" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E268" t="str">
         <v>K</v>
@@ -10806,7 +10851,7 @@
     </row>
     <row r="269" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D269" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E269" t="str">
         <v>K</v>
@@ -10841,7 +10886,7 @@
     </row>
     <row r="270" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D270" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E270" t="str">
         <v>K</v>
@@ -10876,7 +10921,7 @@
     </row>
     <row r="271" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D271" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E271" t="str">
         <v>K</v>
@@ -10911,7 +10956,7 @@
     </row>
     <row r="272" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D272" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="E272" t="str">
         <v>K</v>
@@ -10946,7 +10991,7 @@
     </row>
     <row r="273" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D273" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E273" t="str">
         <v>K</v>
@@ -10981,7 +11026,7 @@
     </row>
     <row r="274" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D274" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E274" t="str">
         <v>K</v>
@@ -11016,7 +11061,7 @@
     </row>
     <row r="275" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D275" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E275" t="str">
         <v>K</v>
@@ -11051,7 +11096,7 @@
     </row>
     <row r="276" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D276" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E276" t="str">
         <v>K</v>
@@ -11086,7 +11131,7 @@
     </row>
     <row r="277" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D277" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E277" t="str">
         <v>K</v>
@@ -11121,7 +11166,7 @@
     </row>
     <row r="278" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D278" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E278" t="str">
         <v>K</v>
@@ -11156,7 +11201,7 @@
     </row>
     <row r="279" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D279" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E279" t="str">
         <v>K</v>
@@ -11191,7 +11236,7 @@
     </row>
     <row r="280" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D280" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E280" t="str">
         <v>K</v>
@@ -11226,7 +11271,7 @@
     </row>
     <row r="281" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D281" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E281" t="str">
         <v>K</v>
@@ -11261,7 +11306,7 @@
     </row>
     <row r="282" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D282" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E282" t="str">
         <v>K</v>
@@ -11296,7 +11341,7 @@
     </row>
     <row r="283" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D283" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E283" t="str">
         <v>K</v>
@@ -11331,7 +11376,7 @@
     </row>
     <row r="284" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D284" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E284" t="str">
         <v>K</v>
@@ -11366,7 +11411,7 @@
     </row>
     <row r="285" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D285" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E285" t="str">
         <v>K</v>
@@ -11401,7 +11446,7 @@
     </row>
     <row r="286" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D286" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E286" t="str">
         <v>K</v>
@@ -11436,7 +11481,7 @@
     </row>
     <row r="287" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D287" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E287" t="str">
         <v>K</v>
@@ -11471,7 +11516,7 @@
     </row>
     <row r="288" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D288" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E288" t="str">
         <v>K</v>
@@ -11506,7 +11551,7 @@
     </row>
     <row r="289" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D289" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E289" t="str">
         <v>K</v>
@@ -11541,7 +11586,7 @@
     </row>
     <row r="290" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D290" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E290" t="str">
         <v>K</v>
@@ -11576,7 +11621,7 @@
     </row>
     <row r="291" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D291" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E291" t="str">
         <v>K</v>
@@ -11611,7 +11656,7 @@
     </row>
     <row r="292" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D292" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E292" t="str">
         <v>K</v>
@@ -11646,7 +11691,7 @@
     </row>
     <row r="293" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D293" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E293" t="str">
         <v>K</v>
@@ -11681,7 +11726,7 @@
     </row>
     <row r="294" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D294" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E294" t="str">
         <v>K</v>
@@ -11716,7 +11761,7 @@
     </row>
     <row r="295" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D295" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E295" t="str">
         <v>K</v>
@@ -11751,7 +11796,7 @@
     </row>
     <row r="296" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D296" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="E296" t="str">
         <v>K</v>
@@ -11786,7 +11831,7 @@
     </row>
     <row r="297" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D297" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E297" t="str">
         <v>K</v>
@@ -11821,7 +11866,7 @@
     </row>
     <row r="298" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D298" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E298" t="str">
         <v>K</v>
@@ -11856,7 +11901,7 @@
     </row>
     <row r="299" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D299" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E299" t="str">
         <v>K</v>
@@ -11891,7 +11936,7 @@
     </row>
     <row r="300" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D300" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E300" t="str">
         <v>K</v>
@@ -11926,7 +11971,7 @@
     </row>
     <row r="301" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D301" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E301" t="str">
         <v>K</v>
@@ -11961,7 +12006,7 @@
     </row>
     <row r="302" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D302" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E302" t="str">
         <v>K</v>
@@ -11996,7 +12041,7 @@
     </row>
     <row r="303" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D303" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E303" t="str">
         <v>K</v>
@@ -12031,7 +12076,7 @@
     </row>
     <row r="304" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D304" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E304" t="str">
         <v>K</v>
@@ -12066,7 +12111,7 @@
     </row>
     <row r="305" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D305" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E305" t="str">
         <v>K</v>
@@ -12101,7 +12146,7 @@
     </row>
     <row r="306" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D306" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E306" t="str">
         <v>K</v>
@@ -12136,7 +12181,7 @@
     </row>
     <row r="307" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D307" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E307" t="str">
         <v>K</v>
@@ -12171,7 +12216,7 @@
     </row>
     <row r="308" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D308" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E308" t="str">
         <v>K</v>
@@ -12206,7 +12251,7 @@
     </row>
     <row r="309" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D309" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E309" t="str">
         <v>K</v>
@@ -12241,7 +12286,7 @@
     </row>
     <row r="310" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D310" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E310" t="str">
         <v>K</v>
@@ -12276,7 +12321,7 @@
     </row>
     <row r="311" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D311" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E311" t="str">
         <v>K</v>
@@ -12311,7 +12356,7 @@
     </row>
     <row r="312" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D312" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E312" t="str">
         <v>K</v>
@@ -12346,7 +12391,7 @@
     </row>
     <row r="313" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D313" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E313" t="str">
         <v>K</v>
@@ -12381,7 +12426,7 @@
     </row>
     <row r="314" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D314" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E314" t="str">
         <v>K</v>
@@ -12416,7 +12461,7 @@
     </row>
     <row r="315" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D315" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E315" t="str">
         <v>K</v>
@@ -12451,7 +12496,7 @@
     </row>
     <row r="316" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D316" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E316" t="str">
         <v>K</v>
@@ -12486,7 +12531,7 @@
     </row>
     <row r="317" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D317" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E317" t="str">
         <v>K</v>
@@ -12521,7 +12566,7 @@
     </row>
     <row r="318" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D318" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E318" t="str">
         <v>K</v>
@@ -12556,7 +12601,7 @@
     </row>
     <row r="319" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D319" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E319" t="str">
         <v>K</v>
@@ -12591,7 +12636,7 @@
     </row>
     <row r="320" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D320" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="E320" t="str">
         <v>K</v>
@@ -12626,7 +12671,7 @@
     </row>
     <row r="321" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D321" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E321" t="str">
         <v>K</v>
@@ -12661,7 +12706,7 @@
     </row>
     <row r="322" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D322" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E322" t="str">
         <v>K</v>
@@ -12696,7 +12741,7 @@
     </row>
     <row r="323" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D323" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E323" t="str">
         <v>K</v>
@@ -12731,7 +12776,7 @@
     </row>
     <row r="324" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D324" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E324" t="str">
         <v>K</v>
@@ -12766,7 +12811,7 @@
     </row>
     <row r="325" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D325" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E325" t="str">
         <v>K</v>
@@ -12801,7 +12846,7 @@
     </row>
     <row r="326" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D326" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E326" t="str">
         <v>K</v>
@@ -12836,7 +12881,7 @@
     </row>
     <row r="327" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D327" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E327" t="str">
         <v>K</v>
@@ -12871,7 +12916,7 @@
     </row>
     <row r="328" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D328" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E328" t="str">
         <v>K</v>
@@ -12906,7 +12951,7 @@
     </row>
     <row r="329" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D329" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E329" t="str">
         <v>K</v>
@@ -12941,7 +12986,7 @@
     </row>
     <row r="330" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D330" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E330" t="str">
         <v>K</v>
@@ -12976,7 +13021,7 @@
     </row>
     <row r="331" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D331" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E331" t="str">
         <v>K</v>
@@ -13011,7 +13056,7 @@
     </row>
     <row r="332" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D332" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="E332" t="str">
         <v>K</v>
